--- a/taiga_commit_log.xlsx
+++ b/taiga_commit_log.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Dharmik" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Laxita" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Repository</t>
   </si>
@@ -42,6 +43,36 @@
   </si>
   <si>
     <t>Mobile: notification implementation</t>
+  </si>
+  <si>
+    <t>mihir7197/STSPCB-Backend</t>
+  </si>
+  <si>
+    <t>04 Jun 2025, 15:05:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#197 updated api for inquiry to get whole progress
+</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>Inquiry  whole lifetime progress  APIs</t>
+  </si>
+  <si>
+    <t>04 Jun 2025, 15:06:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge pull request '#197 updated api for inquiry to get whole progress' (#118) from Laxita_Feature into Deployment
+Reviewed-on: https://gitea.smartechouse.com/mihir7197/STSPCB-Backend/pulls/118
+</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Designing of Customer Page</t>
   </si>
 </sst>
 </file>
@@ -466,4 +497,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>